--- a/data/trans_orig/P16A12-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A12-Habitat-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicamentos para la diabetes en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1879,7 +1879,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2012 (tasa de respuesta: 99,75%)</t>
+          <t>Población según si ha consumido medicamentos para la diabetes en las dos últimas semanas en 2012 (tasa de respuesta: 99,75%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3204,7 +3204,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicamentos para la diabetes en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4529,7 +4529,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2023 (tasa de respuesta: 99,94%)</t>
+          <t>Población según si ha consumido medicamentos para la diabetes en las dos últimas semanas en 2023 (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A12-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A12-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>43494</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>31791</v>
+        <v>32500</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>56681</v>
+        <v>57583</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06276262335648346</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04587417073797805</v>
+        <v>0.04689821406832079</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0817917957267984</v>
+        <v>0.08309315748527139</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -765,19 +765,19 @@
         <v>33675</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22969</v>
+        <v>23473</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>46222</v>
+        <v>46293</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04892142233834413</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03336864423331948</v>
+        <v>0.03410049444298571</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06714931144584445</v>
+        <v>0.06725188592078503</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>78</v>
@@ -786,19 +786,19 @@
         <v>77169</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>60906</v>
+        <v>63450</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>95137</v>
+        <v>95292</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05586528412242049</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04409174455475719</v>
+        <v>0.04593367501667919</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06887286887630781</v>
+        <v>0.0689849912507132</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>649500</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>636313</v>
+        <v>635411</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>661203</v>
+        <v>660494</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9372373766435166</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9182082042732018</v>
+        <v>0.9169068425147289</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9541258292620222</v>
+        <v>0.9531017859316794</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>662</v>
@@ -836,19 +836,19 @@
         <v>654676</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>642129</v>
+        <v>642058</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>665382</v>
+        <v>664878</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9510785776616558</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9328506885541555</v>
+        <v>0.932748114079215</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9666313557666809</v>
+        <v>0.9658995055570144</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1300</v>
@@ -857,19 +857,19 @@
         <v>1304176</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1286208</v>
+        <v>1286053</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1320439</v>
+        <v>1317895</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9441347158775795</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9311271311236922</v>
+        <v>0.9310150087492869</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9559082554452428</v>
+        <v>0.9540663249833211</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>59067</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>44647</v>
+        <v>46277</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>74560</v>
+        <v>74514</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.061412690356651</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04642033563963475</v>
+        <v>0.04811492483260384</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0775213842673638</v>
+        <v>0.07747302054442347</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>68</v>
@@ -982,19 +982,19 @@
         <v>73056</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>56356</v>
+        <v>57129</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>91960</v>
+        <v>91272</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07544050457669224</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05819546966544843</v>
+        <v>0.05899326493758213</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09496182567915605</v>
+        <v>0.09425088083944295</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>126</v>
@@ -1003,19 +1003,19 @@
         <v>132123</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>110364</v>
+        <v>109802</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>156336</v>
+        <v>154027</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0684505552050511</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05717774178884978</v>
+        <v>0.05688646861980769</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08099481226109526</v>
+        <v>0.07979863970388668</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>902733</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>887240</v>
+        <v>887286</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>917153</v>
+        <v>915523</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.938587309643349</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9224786157326362</v>
+        <v>0.9225269794555766</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9535796643603652</v>
+        <v>0.9518850751673962</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>840</v>
@@ -1053,19 +1053,19 @@
         <v>895337</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>876433</v>
+        <v>877121</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>912037</v>
+        <v>911264</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9245594954233077</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9050381743208439</v>
+        <v>0.9057491191605569</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9418045303345515</v>
+        <v>0.9410067350624178</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1678</v>
@@ -1074,19 +1074,19 @@
         <v>1798070</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1773857</v>
+        <v>1776166</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1819829</v>
+        <v>1820391</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9315494447949489</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9190051877389048</v>
+        <v>0.9202013602961132</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9428222582111505</v>
+        <v>0.9431135313801922</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>31108</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22051</v>
+        <v>22303</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>44143</v>
+        <v>43817</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04584734326839186</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03249952941361876</v>
+        <v>0.03287050745624006</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06505868404349952</v>
+        <v>0.06457902637645822</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>42</v>
@@ -1199,19 +1199,19 @@
         <v>40781</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30384</v>
+        <v>29761</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>54855</v>
+        <v>55870</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05963590513991538</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04443083144358126</v>
+        <v>0.04352106116852578</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08021664253746394</v>
+        <v>0.08170058823369521</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>74</v>
@@ -1220,19 +1220,19 @@
         <v>71889</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>56959</v>
+        <v>57305</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>89145</v>
+        <v>89135</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05276860783007561</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04180950540841394</v>
+        <v>0.04206345803977164</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06543468635069043</v>
+        <v>0.06542741478346616</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>647401</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>634366</v>
+        <v>634692</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>656458</v>
+        <v>656206</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9541526567316081</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9349413159565004</v>
+        <v>0.9354209736235417</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9675004705863812</v>
+        <v>0.9671294925437599</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>654</v>
@@ -1270,19 +1270,19 @@
         <v>643060</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>628986</v>
+        <v>627971</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>653457</v>
+        <v>654080</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9403640948600847</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.919783357462536</v>
+        <v>0.9182994117663047</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9555691685564187</v>
+        <v>0.9564789388314742</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1263</v>
@@ -1291,19 +1291,19 @@
         <v>1290461</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1273205</v>
+        <v>1273215</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1305391</v>
+        <v>1305045</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9472313921699244</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9345653136493095</v>
+        <v>0.9345725852165335</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.958190494591586</v>
+        <v>0.9579365419602283</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>49360</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>38790</v>
+        <v>38085</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>62984</v>
+        <v>63121</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05238654440089258</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0411691575594308</v>
+        <v>0.04042081831375657</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06684631691345905</v>
+        <v>0.06699116972172346</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>56</v>
@@ -1416,19 +1416,19 @@
         <v>57703</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>43162</v>
+        <v>44440</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>73681</v>
+        <v>76879</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05555748069128014</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04155779841489656</v>
+        <v>0.04278751192964546</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07094134308299815</v>
+        <v>0.07402076294098182</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>113</v>
@@ -1437,19 +1437,19 @@
         <v>107062</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>87995</v>
+        <v>88877</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>127838</v>
+        <v>127772</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05404916344245665</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0444230398753282</v>
+        <v>0.04486871339198406</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06453726145644716</v>
+        <v>0.06450394058952283</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>892862</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>879238</v>
+        <v>879101</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>903432</v>
+        <v>904137</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9476134555991074</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9331536830865413</v>
+        <v>0.9330088302782765</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9588308424405693</v>
+        <v>0.9595791816862433</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>941</v>
@@ -1487,19 +1487,19 @@
         <v>980909</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>964931</v>
+        <v>961733</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>995450</v>
+        <v>994172</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9444425193087198</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9290586569170018</v>
+        <v>0.9259792370590182</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9584422015851035</v>
+        <v>0.9572124880703544</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1878</v>
@@ -1508,19 +1508,19 @@
         <v>1873772</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1852996</v>
+        <v>1853062</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1892839</v>
+        <v>1891957</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9459508365575433</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9354627385435529</v>
+        <v>0.9354960594104771</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9555769601246719</v>
+        <v>0.9551312866080159</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>183028</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>161058</v>
+        <v>157281</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>210790</v>
+        <v>210899</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05587758800138626</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04917020154681201</v>
+        <v>0.0480170571116687</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06435310264065641</v>
+        <v>0.06438621055171387</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>200</v>
@@ -1633,19 +1633,19 @@
         <v>205215</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>179435</v>
+        <v>180263</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>233611</v>
+        <v>233105</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06072901664633672</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05309977319538539</v>
+        <v>0.05334482818254589</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06913202554855588</v>
+        <v>0.06898246061008288</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>391</v>
@@ -1654,19 +1654,19 @@
         <v>388244</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>347818</v>
+        <v>351804</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>424820</v>
+        <v>426398</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05834109188413016</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05226630388757596</v>
+        <v>0.0528653090353768</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06383733091707244</v>
+        <v>0.06407449286721129</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3092497</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3064735</v>
+        <v>3064626</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3114467</v>
+        <v>3118244</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9441224119986137</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9356468973593435</v>
+        <v>0.935613789448286</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.950829798453188</v>
+        <v>0.9519829428883313</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3097</v>
@@ -1704,19 +1704,19 @@
         <v>3173982</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3145586</v>
+        <v>3146092</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3199762</v>
+        <v>3198934</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9392709833536633</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9308679744514444</v>
+        <v>0.9310175393899172</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9469002268046151</v>
+        <v>0.9466551718174541</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6119</v>
@@ -1725,19 +1725,19 @@
         <v>6266478</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6229902</v>
+        <v>6228324</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6306904</v>
+        <v>6302918</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9416589081158698</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9361626690829274</v>
+        <v>0.9359255071327885</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9477336961124239</v>
+        <v>0.9471346909646229</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>48629</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34891</v>
+        <v>36123</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>63371</v>
+        <v>64092</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06939459102857003</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04978967998465155</v>
+        <v>0.05154734183711174</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09043195596036392</v>
+        <v>0.09146077300422942</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>46</v>
@@ -2090,19 +2090,19 @@
         <v>48597</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>37355</v>
+        <v>35608</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>63279</v>
+        <v>62763</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06999478745941898</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05380260076917452</v>
+        <v>0.05128718935306314</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09114264022877462</v>
+        <v>0.09039873679615938</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>91</v>
@@ -2111,19 +2111,19 @@
         <v>97226</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>78456</v>
+        <v>77748</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>118819</v>
+        <v>118638</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06969329616213692</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05623865291971594</v>
+        <v>0.05573113242870374</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08517178683969799</v>
+        <v>0.08504213202970204</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>652135</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>637393</v>
+        <v>636672</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>665873</v>
+        <v>664641</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.93060540897143</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9095680440396361</v>
+        <v>0.9085392269957706</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9502103200153484</v>
+        <v>0.9484526581628883</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>602</v>
@@ -2161,19 +2161,19 @@
         <v>645691</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>631009</v>
+        <v>631525</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>656933</v>
+        <v>658680</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.930005212540581</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9088573597712254</v>
+        <v>0.9096012632038407</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9461973992308256</v>
+        <v>0.9487128106469369</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1228</v>
@@ -2182,19 +2182,19 @@
         <v>1297825</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1276232</v>
+        <v>1276413</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1316595</v>
+        <v>1317303</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9303067038378631</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9148282131603019</v>
+        <v>0.914957867970298</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.943761347080284</v>
+        <v>0.9442688675712962</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>65570</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>52392</v>
+        <v>50716</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>85501</v>
+        <v>84289</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06441386785771906</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05146801492204587</v>
+        <v>0.04982184911166952</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08399348659843049</v>
+        <v>0.08280272176851881</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>76</v>
@@ -2307,19 +2307,19 @@
         <v>82234</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>64821</v>
+        <v>65758</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>102235</v>
+        <v>104130</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08001165351844396</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06306970359712678</v>
+        <v>0.06398068912128843</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09947246675785219</v>
+        <v>0.1013156371951738</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>136</v>
@@ -2328,19 +2328,19 @@
         <v>147804</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>123674</v>
+        <v>123913</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>171392</v>
+        <v>174294</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07225022890077115</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06045476160230651</v>
+        <v>0.06057178033218952</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08378048216643019</v>
+        <v>0.08519933379524949</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>952377</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>932446</v>
+        <v>933658</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>965555</v>
+        <v>967231</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9355861321422809</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9160065134015695</v>
+        <v>0.9171972782314812</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9485319850779541</v>
+        <v>0.9501781508883305</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>860</v>
@@ -2378,19 +2378,19 @@
         <v>945541</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>925540</v>
+        <v>923645</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>962954</v>
+        <v>962017</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.919988346481556</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9005275332421478</v>
+        <v>0.8986843628048262</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9369302964028732</v>
+        <v>0.9360193108787116</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1736</v>
@@ -2399,19 +2399,19 @@
         <v>1897919</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1874331</v>
+        <v>1871429</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1922049</v>
+        <v>1921810</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9277497710992288</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9162195178335697</v>
+        <v>0.9148006662047502</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9395452383976934</v>
+        <v>0.9394282196678103</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>48637</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>35752</v>
+        <v>35950</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>65081</v>
+        <v>65248</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06428830856629071</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04725678149076661</v>
+        <v>0.04751900546064594</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08602510056500051</v>
+        <v>0.08624579892377884</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>62</v>
@@ -2524,19 +2524,19 @@
         <v>65872</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>51770</v>
+        <v>52481</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>82979</v>
+        <v>82752</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08485503314589014</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06668974330081694</v>
+        <v>0.06760524827888122</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1068922076076041</v>
+        <v>0.1066002211728032</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>106</v>
@@ -2545,19 +2545,19 @@
         <v>114508</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>94931</v>
+        <v>96223</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>135482</v>
+        <v>138168</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07470413959875981</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06193217497304662</v>
+        <v>0.06277502963713731</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08838709937209074</v>
+        <v>0.09013993230872096</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>707901</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>691457</v>
+        <v>691290</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>720786</v>
+        <v>720588</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9357116914337092</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9139748994349993</v>
+        <v>0.9137542010762214</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9527432185092323</v>
+        <v>0.9524809945393542</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>642</v>
@@ -2595,19 +2595,19 @@
         <v>710411</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>693304</v>
+        <v>693531</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>724513</v>
+        <v>723802</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9151449668541098</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8931077923923961</v>
+        <v>0.8933997788271966</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9333102566991832</v>
+        <v>0.9323947517211182</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1286</v>
@@ -2616,19 +2616,19 @@
         <v>1418313</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1397339</v>
+        <v>1394653</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1437890</v>
+        <v>1436598</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9252958604012402</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9116129006279093</v>
+        <v>0.9098600676912791</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9380678250269535</v>
+        <v>0.9372249703628628</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>87235</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>70880</v>
+        <v>69677</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>106240</v>
+        <v>106453</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.092221225088336</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07493123695830931</v>
+        <v>0.07366015048283639</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1123130535996636</v>
+        <v>0.1125375512066303</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>99</v>
@@ -2741,19 +2741,19 @@
         <v>103284</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>82724</v>
+        <v>84799</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>124189</v>
+        <v>124455</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09848139838345668</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07887764206858049</v>
+        <v>0.08085619444614567</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1184143688262055</v>
+        <v>0.1186688357935161</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>179</v>
@@ -2762,19 +2762,19 @@
         <v>190519</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>163711</v>
+        <v>167690</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>217615</v>
+        <v>222569</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09551267750142567</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08207299112150794</v>
+        <v>0.08406818243596878</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1090970261883495</v>
+        <v>0.1115806289718738</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>858695</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>839690</v>
+        <v>839477</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>875050</v>
+        <v>876253</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.907778774911664</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8876869464003364</v>
+        <v>0.8874624487933698</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9250687630416907</v>
+        <v>0.9263398495171636</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>901</v>
@@ -2812,19 +2812,19 @@
         <v>945479</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>924574</v>
+        <v>924308</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>966039</v>
+        <v>963964</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9015186016165433</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8815856311737941</v>
+        <v>0.8813311642064838</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9211223579314192</v>
+        <v>0.9191438055538542</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1729</v>
@@ -2833,19 +2833,19 @@
         <v>1804175</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1777079</v>
+        <v>1772125</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1830983</v>
+        <v>1827004</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9044873224985743</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8909029738116504</v>
+        <v>0.8884193710281262</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.917927008878492</v>
+        <v>0.9159318175640312</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>250071</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>216787</v>
+        <v>218513</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>284848</v>
+        <v>282063</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07309483587832821</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06336607398399374</v>
+        <v>0.0638707004419605</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08326024461877378</v>
+        <v>0.08244612200288264</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>283</v>
@@ -2958,19 +2958,19 @@
         <v>299986</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>269260</v>
+        <v>269626</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>332597</v>
+        <v>336528</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08457188379677998</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07590954776220786</v>
+        <v>0.07601294083900072</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09376575404170655</v>
+        <v>0.09487377675308131</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>512</v>
@@ -2979,19 +2979,19 @@
         <v>550056</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>503836</v>
+        <v>504142</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>599017</v>
+        <v>598602</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07893706617696331</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07230410076287572</v>
+        <v>0.0723479820321806</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08596331956708025</v>
+        <v>0.08590365769011724</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3171108</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3136331</v>
+        <v>3139116</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3204392</v>
+        <v>3202666</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9269051641216718</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9167397553812263</v>
+        <v>0.9175538779971174</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9366339260160064</v>
+        <v>0.9361292995580396</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3005</v>
@@ -3029,19 +3029,19 @@
         <v>3247124</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3214513</v>
+        <v>3210582</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3277850</v>
+        <v>3277484</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9154281162032201</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9062342459582935</v>
+        <v>0.9051262232469187</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9240904522377922</v>
+        <v>0.9239870591609993</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5979</v>
@@ -3050,19 +3050,19 @@
         <v>6418233</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6369272</v>
+        <v>6369687</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6464453</v>
+        <v>6464147</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9210629338230367</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9140366804329197</v>
+        <v>0.9140963423098828</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9276958992371244</v>
+        <v>0.9276520179678194</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>65548</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>52197</v>
+        <v>50503</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>83368</v>
+        <v>81586</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09713705259614137</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07735209816507319</v>
+        <v>0.07484080629946198</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1235440430193431</v>
+        <v>0.1209041131684612</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>54</v>
@@ -3415,19 +3415,19 @@
         <v>58742</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>44267</v>
+        <v>46203</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>75353</v>
+        <v>76668</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08730439157979086</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06579094935914828</v>
+        <v>0.0686685782200132</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1119927492701415</v>
+        <v>0.113947357455774</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>120</v>
@@ -3436,19 +3436,19 @@
         <v>124290</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>106112</v>
+        <v>102863</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>144431</v>
+        <v>146035</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09222787603180355</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07873938283197723</v>
+        <v>0.07632861065600828</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1071730467758903</v>
+        <v>0.1083638890501362</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>609252</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>591432</v>
+        <v>593214</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>622603</v>
+        <v>624297</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9028629474038586</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8764559569806574</v>
+        <v>0.8790958868315393</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9226479018349275</v>
+        <v>0.925159193700538</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>612</v>
@@ -3486,19 +3486,19 @@
         <v>614097</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>597486</v>
+        <v>596171</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>628572</v>
+        <v>626636</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9126956084202091</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8880072507298579</v>
+        <v>0.8860526425442258</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9342090506408517</v>
+        <v>0.9313314217799866</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1198</v>
@@ -3507,19 +3507,19 @@
         <v>1223349</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1203208</v>
+        <v>1201604</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1241527</v>
+        <v>1244776</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9077721239681964</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8928269532241097</v>
+        <v>0.8916361109498639</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9212606171680228</v>
+        <v>0.9236713893439918</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>80432</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>65263</v>
+        <v>64009</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>98661</v>
+        <v>98791</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07866737474311682</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06383088824250957</v>
+        <v>0.0626048782935915</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09649622627061069</v>
+        <v>0.09662356543576131</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>66</v>
@@ -3632,19 +3632,19 @@
         <v>78793</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>62364</v>
+        <v>61554</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>98802</v>
+        <v>98403</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07555093852872012</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05979767738386018</v>
+        <v>0.05902147347408677</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09473653219542061</v>
+        <v>0.0943535474136302</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>147</v>
@@ -3653,19 +3653,19 @@
         <v>159225</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>135768</v>
+        <v>136348</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>183104</v>
+        <v>186828</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07709370379163354</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06573637464798644</v>
+        <v>0.06601725799775053</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08865551888598125</v>
+        <v>0.09045853272364417</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>941999</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>923770</v>
+        <v>923640</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>957168</v>
+        <v>958422</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9213326252568832</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9035037737293892</v>
+        <v>0.9033764345642387</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9361691117574904</v>
+        <v>0.9373951217064085</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>911</v>
@@ -3703,19 +3703,19 @@
         <v>964120</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>944111</v>
+        <v>944510</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>980549</v>
+        <v>981359</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9244490614712799</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9052634678045793</v>
+        <v>0.9056464525863697</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9402023226161398</v>
+        <v>0.9409785265259132</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1781</v>
@@ -3724,19 +3724,19 @@
         <v>1906119</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1882240</v>
+        <v>1878516</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1929576</v>
+        <v>1928996</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9229062962083665</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9113444811140183</v>
+        <v>0.9095414672763559</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9342636253520133</v>
+        <v>0.9339827420022495</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>69659</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>54809</v>
+        <v>54425</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>89426</v>
+        <v>86563</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09171014393592546</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07215949088849076</v>
+        <v>0.07165381346474319</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1177355862533187</v>
+        <v>0.1139663936975842</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>54</v>
@@ -3849,19 +3849,19 @@
         <v>61360</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46220</v>
+        <v>48005</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>78603</v>
+        <v>79247</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07816456555212456</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05887752237807888</v>
+        <v>0.06115178210712392</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1001300712207924</v>
+        <v>0.1009502447140944</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>118</v>
@@ -3870,19 +3870,19 @@
         <v>131019</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>110708</v>
+        <v>109796</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>154823</v>
+        <v>156405</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08482572062464259</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07167576597811355</v>
+        <v>0.07108561689269849</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1002372214256257</v>
+        <v>0.1012615654228496</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>689893</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>670126</v>
+        <v>672989</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>704743</v>
+        <v>705127</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9082898560640745</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8822644137466811</v>
+        <v>0.8860336063024167</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9278405091115092</v>
+        <v>0.9283461865352571</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>682</v>
@@ -3920,19 +3920,19 @@
         <v>723651</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>706408</v>
+        <v>705764</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>738791</v>
+        <v>737006</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9218354344478754</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8998699287792077</v>
+        <v>0.8990497552859056</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9411224776219212</v>
+        <v>0.9388482178928762</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1314</v>
@@ -3941,19 +3941,19 @@
         <v>1413544</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1389740</v>
+        <v>1388158</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1433855</v>
+        <v>1434767</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9151742793753574</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8997627785743743</v>
+        <v>0.8987384345771504</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9283242340218865</v>
+        <v>0.9289143831073015</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>68169</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>53620</v>
+        <v>54769</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>85210</v>
+        <v>83747</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07270799607204605</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05719083333814685</v>
+        <v>0.05841621693591888</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09088380072744129</v>
+        <v>0.08932333439418358</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>67</v>
@@ -4066,19 +4066,19 @@
         <v>79048</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>60959</v>
+        <v>61913</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>101074</v>
+        <v>99855</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07573217744513686</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05840203990741365</v>
+        <v>0.0593160235171015</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0968345969510496</v>
+        <v>0.09566658030631828</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>141</v>
@@ -4087,19 +4087,19 @@
         <v>147216</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>122540</v>
+        <v>125711</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>170953</v>
+        <v>173419</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07430114387608923</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06184664989718976</v>
+        <v>0.06344749491986362</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08628105092371745</v>
+        <v>0.08752601160776381</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>869398</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>852357</v>
+        <v>853820</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>883947</v>
+        <v>882798</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.927292003927954</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9091161992725587</v>
+        <v>0.9106766656058164</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9428091666618531</v>
+        <v>0.9415837830640812</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>892</v>
@@ -4137,19 +4137,19 @@
         <v>964731</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>942705</v>
+        <v>943924</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>982820</v>
+        <v>981866</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9242678225548632</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9031654030489503</v>
+        <v>0.9043334196936819</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9415979600925862</v>
+        <v>0.9406839764828986</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1750</v>
@@ -4158,19 +4158,19 @@
         <v>1834130</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1810393</v>
+        <v>1807927</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1858806</v>
+        <v>1855635</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9256988561239108</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9137189490762821</v>
+        <v>0.9124739883922361</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9381533501028102</v>
+        <v>0.9365525050801362</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>283807</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>254398</v>
+        <v>248452</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>315851</v>
+        <v>315337</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08361167524436473</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0749474501917021</v>
+        <v>0.07319576833460832</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0930518462122866</v>
+        <v>0.09290062123889188</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>241</v>
@@ -4283,19 +4283,19 @@
         <v>277943</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>242575</v>
+        <v>244702</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>312581</v>
+        <v>311510</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0784142367788917</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06843611052221663</v>
+        <v>0.06903631487112906</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08818656848614737</v>
+        <v>0.0878843147963445</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>526</v>
@@ -4304,19 +4304,19 @@
         <v>561750</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>515709</v>
+        <v>513482</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>611236</v>
+        <v>611981</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08095670698434509</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07432147579491016</v>
+        <v>0.07400058334447875</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0880884540616873</v>
+        <v>0.08819571754417484</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3110543</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3078499</v>
+        <v>3079013</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3139952</v>
+        <v>3145898</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9163883247556353</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9069481537877134</v>
+        <v>0.907099378761108</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9250525498082979</v>
+        <v>0.9268042316653917</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3097</v>
@@ -4354,19 +4354,19 @@
         <v>3266599</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3231961</v>
+        <v>3233032</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3301967</v>
+        <v>3299840</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9215857632211083</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9118134315138527</v>
+        <v>0.9121156852036556</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9315638894777833</v>
+        <v>0.9309636851288711</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6043</v>
@@ -4375,19 +4375,19 @@
         <v>6377142</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6327656</v>
+        <v>6326911</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6423183</v>
+        <v>6425410</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9190432930156549</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9119115459383136</v>
+        <v>0.9118042824558253</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9256785242050901</v>
+        <v>0.9259994166555212</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>65891</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>53908</v>
+        <v>53763</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>80486</v>
+        <v>80586</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.09539534781088886</v>
+        <v>0.09539534781088883</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07804760924583518</v>
+        <v>0.07783658185930993</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1165266892265439</v>
+        <v>0.1166719702273358</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>153</v>
@@ -4740,19 +4740,19 @@
         <v>66671</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>57246</v>
+        <v>55617</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>78401</v>
+        <v>77448</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.09094250886531952</v>
+        <v>0.0909425088653195</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07808553794616023</v>
+        <v>0.07586355578169618</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1069420637374417</v>
+        <v>0.1056427546588593</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>251</v>
@@ -4761,19 +4761,19 @@
         <v>132562</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>116427</v>
+        <v>115042</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>151388</v>
+        <v>152488</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.09310262215761754</v>
+        <v>0.09310262215761755</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08177103809508963</v>
+        <v>0.08079799024546955</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1063251497330641</v>
+        <v>0.1070973694664864</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>624819</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>610224</v>
+        <v>610124</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>636802</v>
+        <v>636947</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9046046521891112</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8834733107734559</v>
+        <v>0.883328029772664</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9219523907541647</v>
+        <v>0.9221634181406898</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1086</v>
@@ -4811,19 +4811,19 @@
         <v>666442</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>654712</v>
+        <v>655665</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>675867</v>
+        <v>677496</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9090574911346804</v>
+        <v>0.9090574911346806</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8930579362625564</v>
+        <v>0.8943572453411406</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9219144620538394</v>
+        <v>0.9241364442183037</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1718</v>
@@ -4832,19 +4832,19 @@
         <v>1291261</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1272435</v>
+        <v>1271335</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1307396</v>
+        <v>1308781</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9068973778423826</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.893674850266936</v>
+        <v>0.8929026305335138</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9182289619049103</v>
+        <v>0.9192020097545307</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>86499</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>69657</v>
+        <v>71629</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>103519</v>
+        <v>103557</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.08246501290850092</v>
+        <v>0.0824650129085009</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06640848668999981</v>
+        <v>0.06828849089456364</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09869104954938883</v>
+        <v>0.09872737001514953</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>150</v>
@@ -4957,19 +4957,19 @@
         <v>80802</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>69068</v>
+        <v>68210</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>94672</v>
+        <v>94414</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.07545685178094121</v>
+        <v>0.07545685178094122</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06449885736095345</v>
+        <v>0.06369750440455636</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0884095104607751</v>
+        <v>0.08816863339774667</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>264</v>
@@ -4978,19 +4978,19 @@
         <v>167301</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>147463</v>
+        <v>147856</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>190155</v>
+        <v>190905</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07892469582147815</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06956615170478814</v>
+        <v>0.0697513544861031</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08970590889448098</v>
+        <v>0.09006001504569754</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>962418</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>945398</v>
+        <v>945360</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>979260</v>
+        <v>977288</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9175349870914991</v>
+        <v>0.9175349870914992</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9013089504506112</v>
+        <v>0.9012726299848499</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9335915133100001</v>
+        <v>0.9317115091054362</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1366</v>
@@ -5028,19 +5028,19 @@
         <v>990036</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>976166</v>
+        <v>976424</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1001770</v>
+        <v>1002628</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9245431482190588</v>
+        <v>0.9245431482190589</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9115904895392251</v>
+        <v>0.9118313666022533</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9355011426390468</v>
+        <v>0.9363024955954435</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2216</v>
@@ -5049,19 +5049,19 @@
         <v>1952454</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1929600</v>
+        <v>1928850</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1972292</v>
+        <v>1971899</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9210753041785219</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9102940911055187</v>
+        <v>0.9099399849543042</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9304338482952117</v>
+        <v>0.930248645513897</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>62678</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>48938</v>
+        <v>49461</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>79752</v>
+        <v>78352</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07814411492937025</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06101376810104653</v>
+        <v>0.06166599159638179</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09943129479332968</v>
+        <v>0.09768567032527796</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>77</v>
@@ -5174,19 +5174,19 @@
         <v>47588</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>38247</v>
+        <v>37405</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>57923</v>
+        <v>58665</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.05863050233759791</v>
+        <v>0.0586305023375979</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0471222459472011</v>
+        <v>0.04608469354187034</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07136303982020026</v>
+        <v>0.07227711914928399</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>146</v>
@@ -5195,19 +5195,19 @@
         <v>110266</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>93446</v>
+        <v>93002</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>132275</v>
+        <v>130127</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.06832940521947276</v>
+        <v>0.06832940521947277</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05790606847137124</v>
+        <v>0.05763129251418819</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08196753006975677</v>
+        <v>0.08063668370857924</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>739408</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>722334</v>
+        <v>723734</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>753148</v>
+        <v>752625</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9218558850706298</v>
+        <v>0.9218558850706297</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9005687052066695</v>
+        <v>0.9023143296747219</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9389862318989532</v>
+        <v>0.9383340084036182</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>969</v>
@@ -5245,19 +5245,19 @@
         <v>764075</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>753740</v>
+        <v>752998</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>773416</v>
+        <v>774258</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9413694976624021</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9286369601797998</v>
+        <v>0.927722880850716</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.952877754052799</v>
+        <v>0.9539153064581293</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1575</v>
@@ -5266,19 +5266,19 @@
         <v>1503482</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1481473</v>
+        <v>1483621</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1520302</v>
+        <v>1520746</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9316705947805271</v>
+        <v>0.9316705947805273</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9180324699302427</v>
+        <v>0.9193633162914204</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9420939315286285</v>
+        <v>0.9423687074858118</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>91089</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>76314</v>
+        <v>76116</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>109413</v>
+        <v>111361</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09200331023264148</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07708049330498667</v>
+        <v>0.07688002499373595</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1105109947867159</v>
+        <v>0.1124788840722611</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>142</v>
@@ -5391,19 +5391,19 @@
         <v>82185</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>69582</v>
+        <v>69947</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>94823</v>
+        <v>97513</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.07357418916955694</v>
+        <v>0.07357418916955696</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06229190785183022</v>
+        <v>0.06261860095025451</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08488828030994025</v>
+        <v>0.08729659003897196</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>266</v>
@@ -5412,19 +5412,19 @@
         <v>173274</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>151684</v>
+        <v>151538</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>193734</v>
+        <v>195197</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.08223350198590557</v>
+        <v>0.08223350198590558</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07198718603461206</v>
+        <v>0.07191822982998076</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09194393841338996</v>
+        <v>0.09263782761885414</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>898973</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>880649</v>
+        <v>878701</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>913748</v>
+        <v>913946</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9079966897673586</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8894890052132843</v>
+        <v>0.8875211159277391</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9229195066950133</v>
+        <v>0.9231199750062642</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1417</v>
@@ -5462,19 +5462,19 @@
         <v>1034846</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1022208</v>
+        <v>1019518</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1047449</v>
+        <v>1047084</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9264258108304432</v>
+        <v>0.9264258108304431</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9151117196900597</v>
+        <v>0.9127034099610282</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9377080921481697</v>
+        <v>0.9373813990497455</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2299</v>
@@ -5483,19 +5483,19 @@
         <v>1933819</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1913359</v>
+        <v>1911896</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1955409</v>
+        <v>1955555</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9177664980140945</v>
+        <v>0.9177664980140946</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9080560615866101</v>
+        <v>0.9073621723811456</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9280128139653876</v>
+        <v>0.9280817701700191</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>306157</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>276909</v>
+        <v>277153</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>339115</v>
+        <v>337434</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08668637098612157</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07840518520783492</v>
+        <v>0.07847424368235967</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09601834333111516</v>
+        <v>0.0955422645158346</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>522</v>
@@ -5608,19 +5608,19 @@
         <v>277246</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>252828</v>
+        <v>255256</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>300583</v>
+        <v>303981</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07427603474967184</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06773440672826786</v>
+        <v>0.06838473994997088</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08052817994761208</v>
+        <v>0.08143849030585887</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>927</v>
@@ -5629,19 +5629,19 @@
         <v>583403</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>545920</v>
+        <v>544194</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>625197</v>
+        <v>622321</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.08030962241378704</v>
+        <v>0.08030962241378706</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07514986108513251</v>
+        <v>0.07491228852290376</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08606286569180459</v>
+        <v>0.08566699467729803</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3225618</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3192660</v>
+        <v>3194341</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3254866</v>
+        <v>3254622</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9133136290138784</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9039816566688846</v>
+        <v>0.9044577354841654</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9215948147921651</v>
+        <v>0.9215257563176403</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4838</v>
@@ -5679,19 +5679,19 @@
         <v>3455399</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3432062</v>
+        <v>3428664</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3479817</v>
+        <v>3477389</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9257239652503282</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9194718200523877</v>
+        <v>0.918561509694141</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.932265593271732</v>
+        <v>0.9316152600500293</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7808</v>
@@ -5700,19 +5700,19 @@
         <v>6681016</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6639222</v>
+        <v>6642098</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6718499</v>
+        <v>6720225</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.919690377586213</v>
+        <v>0.9196903775862129</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9139371343081956</v>
+        <v>0.9143330053227019</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9248501389148674</v>
+        <v>0.9250877114770962</v>
       </c>
     </row>
     <row r="18">
